--- a/outputs-HGR-r202/g__Streptococcus.xlsx
+++ b/outputs-HGR-r202/g__Streptococcus.xlsx
@@ -1553,7 +1553,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>s__Streptococcus agalactiae(reject)</t>
+          <t>s__Streptococcus agalactiae</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Streptococcus.xlsx
+++ b/outputs-HGR-r202/g__Streptococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,6 +946,2034 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT42689.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.005869415921945433</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.005117826116105333</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00734133390588484</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002373414455475334</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.07118067834821784</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04464866255083379</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2246438990530981</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06434609001624504</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.005900026505425787</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.00909298414549368</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.02816267419391544</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.06495680766665951</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.004283638235474849</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.002916822791939301</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0003617917529010255</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0258172773123974</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.146073111087611</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.1792616567726333</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.09770211438303483</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.006837147850551709</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.003112626934156541</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.2246438990530981</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44104.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02121362485805901</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.005188566686410849</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04376812869923859</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002215254553427448</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06906509937284992</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03910742718429036</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2174531150904286</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.02871459689209456</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01574925219259234</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.007750762842679443</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02831394516060791</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.06020293689169412</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.001309071984647076</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.004962426285340662</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0002875298903242129</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.02978483520613187</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1362985567026815</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.1708641861072455</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.1073282216438683</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.006440088824101771</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.003982372931286167</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.2174531150904286</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47063.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0001045364038303338</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.143069725895866e-05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.19155511925927e-08</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.006444525774971989</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02203719161097263</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.06692089598632713</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.02281498365384719</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.004904383056794019</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0002369989850382023</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00713098320358481</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.02817091065009661</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.03200594280559969</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.01272947869617013</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.001998852740295032</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.009424361528289462</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2364013271345465</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.188819975503875</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.1977969809577367</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.1434031088654874</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.01030286808792523</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.008340251741801809</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.2364013271345465</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900543065</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47559.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02365793142275035</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01055744119048926</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.007849039789440553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.003089099465244873</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.07195419184747093</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04529596538268471</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1573480068127876</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.05424224897734523</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.00771512700543129</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.01104609483251977</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.02671714011718215</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.05611278811872557</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.00464379742484265</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.004173508321528257</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0005900750832406969</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.08004442980185653</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.1380948390545508</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.1794747396529766</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.1063450678272556</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.007697928374235024</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.003350539497441805</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.1794747396529766</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48735.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0009287995644221557</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001358753562215941</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.653695769835112e-08</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.07215874263517555</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.02880032116341662</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.06617012484737454</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.03181241401674862</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.07731856691335794</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.003631556120404511</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01302088128466898</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.02392426629422595</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.04784637858947528</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.005524863744826859</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0002137359018976415</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.02247999629470374</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.06406439043348633</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.1414695490339119</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.1923332289992271</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.1851036572698802</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.005748931580476566</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.01609078521314605</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.1923332289992271</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49051.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0004580371115402832</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001404653353916596</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.154772003509677e-08</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0419407262129842</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02817697624127172</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.06229644437061584</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.02368895830261094</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.03799557744337976</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001743840004173548</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0189276671889614</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.02383801112670906</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.02676666688289314</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.002416816001438377</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0007605367605946571</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.03868245092025584</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.1958531578230465</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.134002556708189</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.1838564399936351</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.1559195365836601</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.00635004639368027</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.01492080902872352</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.1958531578230465</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900543065</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49384.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3184619587859872</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.001260658778193452</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0002376959418702774</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.003483628769850721</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.03243579939485534</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02745620370174078</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.05633354557489129</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.04553453259772963</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.009019387528842744</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.005701656245610511</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.01643673586198991</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.05577964746455807</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.04926154757286211</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0003902866280141332</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.00164707755461249</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0138932974126451</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.1061124355309533</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.1525553546438323</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.08802723467962492</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.00282530480655722</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.01314601052477858</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.3184619587859872</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>s__Streptococcus agalactiae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6224.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1389361448228341</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.001321445968565257</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.000313158975540953</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.004641265031415814</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04637818593741595</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03539165895343632</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.06714829723844187</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.04775530156681754</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.02304144425932247</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.007497971494050106</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0223776901168657</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.05605281835838614</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.07616629733297348</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0006866363859626857</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.00137949650015495</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.02371868669857271</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1262233117489625</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.1886656773635898</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1143739212936841</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.004119823638029662</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.01381076631497785</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.1886656773635898</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT83503.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.008430826165579637</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.001690404076990521</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02096689447873696</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001169164302464124</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.05974218796541848</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.05928926772120192</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.2079348902608021</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.07592988432494113</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.002189854569960232</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.005979116476864283</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.02791804868666974</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.04874202347274049</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.002013663272985188</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.003139473029928851</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0003581338530954282</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0349085909749468</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.142087277054686</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.1739299053755103</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.1142247890259855</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.007030796210792569</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.00232480869969971</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.2079348902608021</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89273.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01058929035323532</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02052673725623493</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.08057699628307573</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05378008548741051</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1791721879231055</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.03104390032946524</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02165155727076014</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.03133901367228504</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.04163614904376605</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.001302371677933793</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.002580100295451512</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0003044567743299771</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.05005219969441024</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.1316413180604734</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.131946748308769</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.006642801035962663</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.003383674295770434</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89332.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01058929035323532</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.02052673725623493</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.08057699628307573</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05378008548741051</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.1791721879231055</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.03104390032946524</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02165155727076014</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.03133901367228504</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.04163614904376605</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.001302371677933793</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.002580100295451512</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0003044567743299771</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.05005219969441024</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.1316413180604734</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.131946748308769</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.006642801035962663</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.003383674295770434</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89668.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01058929035323532</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02052673725623493</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.08057699628307573</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.05378008548741051</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1791721879231055</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.03104390032946524</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.02165155727076014</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.03133901367228504</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.04163614904376605</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.001302371677933793</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.002580100295451512</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0003044567743299771</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.05005219969441024</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.1316413180604734</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.131946748308769</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.006642801035962663</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.003383674295770434</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89684.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01058929035323532</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.02052673725623493</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.08057699628307573</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.05378008548741051</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1791721879231055</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03104390032946524</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.02165155727076014</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.03133901367228504</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.04163614904376605</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.001302371677933793</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.002580100295451512</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.0003044567743299771</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.05005219969441024</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.1316413180604734</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.131946748308769</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.006642801035962663</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.003383674295770434</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89695.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.009775302831807364</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.001616738888054614</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1252877536163491</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.001204271749687695</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.06779719270011518</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.04336856181539865</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1893908203178128</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.04069078584405559</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01506663580730866</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.005508186551530143</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.02693399703993793</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.04645058132244061</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.001071770726191024</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.003225372959117263</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.0001559134360617791</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.01450228874895171</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.1233739706362846</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.1687869168523675</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.1068076332650982</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.005822209600371307</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.003163095291058149</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.1893908203178128</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89697.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.009775302831807364</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.001616738888054614</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1252877536163491</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.001204271749687695</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.06779719270011518</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04336856181539865</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1893908203178128</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.04069078584405559</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01506663580730866</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.005508186551530143</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.02693399703993793</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.04645058132244061</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.001071770726191024</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.003225372959117263</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.0001559134360617791</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.01450228874895171</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.1233739706362846</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.1687869168523675</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.1068076332650982</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.005822209600371307</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.003163095291058149</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.1893908203178128</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89858.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01058929035323532</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02052673725623493</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.08057699628307573</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05378008548741051</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1791721879231055</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.03104390032946524</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.02165155727076014</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.03133901367228504</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.04163614904376605</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.001302371677933793</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.002580100295451512</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.0003044567743299771</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.05005219969441024</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.1316413180604734</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.131946748308769</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.006642801035962663</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.003383674295770434</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89860.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01058929035323532</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02052673725623493</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.08057699628307573</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05378008548741051</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1791721879231055</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.03104390032946524</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.02165155727076014</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.03133901367228504</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.04163614904376605</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.001302371677933793</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.002580100295451512</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.0003044567743299771</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.05005219969441024</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.1316413180604734</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.131946748308769</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.006642801035962663</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.003383674295770434</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89941.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01058929035323532</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.02052673725623493</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.08057699628307573</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.05378008548741051</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1791721879231055</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.03104390032946524</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.02165155727076014</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.03133901367228504</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.04163614904376605</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.001302371677933793</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.002580100295451512</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.0003044567743299771</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.05005219969441024</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.1316413180604734</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.131946748308769</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.006642801035962663</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.003383674295770434</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90444.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01058929035323532</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.02052673725623493</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.08057699628307573</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.05378008548741051</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1791721879231055</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.03104390032946524</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.02165155727076014</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.03133901367228504</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.04163614904376605</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.001302371677933793</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.002580100295451512</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.0003044567743299771</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.05005219969441024</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.1316413180604734</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.131946748308769</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.006642801035962663</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.003383674295770434</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90475.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01058929035323532</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.02052673725623493</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.08057699628307573</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.05378008548741051</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1791721879231055</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.03104390032946524</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.02165155727076014</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.03133901367228504</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.04163614904376605</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.001302371677933793</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.002580100295451512</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.0003044567743299771</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.05005219969441024</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1316413180604734</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.131946748308769</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.006642801035962663</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.003383674295770434</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90508.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.009775302831807364</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.001616738888054614</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1252877536163491</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.001204271749687695</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.06779719270011518</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.04336856181539865</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1893908203178128</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.04069078584405559</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01506663580730866</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.005508186551530143</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.02693399703993793</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.04645058132244061</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.001071770726191024</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.003225372959117263</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.0001559134360617791</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.01450228874895171</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.1233739706362846</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.1687869168523675</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.1068076332650982</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.005822209600371307</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.003163095291058149</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.1893908203178128</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90581.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01058929035323532</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.02052673725623493</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.08057699628307573</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.05378008548741051</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1791721879231055</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.03104390032946524</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.02165155727076014</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.03133901367228504</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.04163614904376605</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.001302371677933793</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.002580100295451512</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.0003044567743299771</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.05005219969441024</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.1316413180604734</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.131946748308769</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.006642801035962663</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.003383674295770434</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90913.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01058929035323532</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.02052673725623493</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.08057699628307573</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.05378008548741051</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1791721879231055</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.03104390032946524</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.02165155727076014</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.03133901367228504</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.04163614904376605</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.001302371677933793</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.002580100295451512</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.0003044567743299771</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.05005219969441024</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.1316413180604734</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.131946748308769</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.006642801035962663</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.003383674295770434</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.1891899461509715</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91144.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.009775302831807364</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.001616738888054614</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1252877536163491</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.001204271749687695</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.06779719270011518</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.04336856181539865</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1893908203178128</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.04069078584405559</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.01506663580730866</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.005508186551530143</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.02693399703993793</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.04645058132244061</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.001071770726191024</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.003225372959117263</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0001559134360617791</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.01450228874895171</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1233739706362846</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.1687869168523675</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.1068076332650982</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.005822209600371307</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.003163095291058149</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.1893908203178128</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91355.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.002267904230244214</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.08465594520276537</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.573583685047482e-05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02849198832170318</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0299834346122576</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.02935136033838005</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.06421795149645437</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.142477648762632</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0102307339602782</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01198990458278959</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.01903461148446513</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.04232438685779472</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0001302532129484869</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0007995441081181391</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.005589712084948631</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.1972331292932738</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.09448566022295354</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.1418724922363223</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.08635291307221442</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.004367844639735052</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.004106845442870819</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.1972331292932738</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900543065</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT915.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01852524730700194</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.00446031301675617</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.07523691000652166</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.001616462051847882</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.06887302007267634</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.04055545013147326</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.1554450219203288</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.04338192810365372</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.01624731449772588</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.006729074088990786</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.02758582884091889</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.05677800196143409</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.001259611665366735</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.006290701918588935</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.0003338830316383633</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.04113967737726668</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.1348804024159788</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.1741627748882046</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.1158432499353871</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.00732633819534603</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.003328788572893161</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.1741627748882046</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__Streptococcus.xlsx
+++ b/outputs-HGR-r202/g__Streptococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -633,6 +638,11 @@
           <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -711,6 +721,11 @@
           <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -789,6 +804,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -867,6 +887,11 @@
           <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -945,6 +970,11 @@
           <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1023,6 +1053,11 @@
           <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1101,6 +1136,11 @@
           <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1179,6 +1219,11 @@
           <t>s__Streptococcus sp900543065</t>
         </is>
       </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900543065</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1257,6 +1302,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1335,6 +1385,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1413,6 +1468,11 @@
           <t>s__Streptococcus sp900543065</t>
         </is>
       </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900543065</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1491,6 +1551,11 @@
           <t>s__Streptococcus agalactiae</t>
         </is>
       </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>s__Streptococcus agalactiae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1569,6 +1634,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1647,6 +1717,11 @@
           <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1725,6 +1800,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1803,6 +1883,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1881,6 +1966,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1959,6 +2049,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2037,6 +2132,11 @@
           <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2115,6 +2215,11 @@
           <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2193,6 +2298,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2271,6 +2381,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2349,6 +2464,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2427,6 +2547,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2505,6 +2630,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2583,6 +2713,11 @@
           <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2661,6 +2796,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2739,6 +2879,11 @@
           <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2817,6 +2962,11 @@
           <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>s__Streptococcus lutetiensis</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2895,6 +3045,11 @@
           <t>s__Streptococcus sp900543065</t>
         </is>
       </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900543065</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2969,6 +3124,11 @@
         <v>0.1741627748882046</v>
       </c>
       <c r="X32" t="inlineStr">
+        <is>
+          <t>s__Streptococcus sp900550895</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
         <is>
           <t>s__Streptococcus sp900550895</t>
         </is>
